--- a/data_xlsx/美国_国债收益率_2年.xlsx
+++ b/data_xlsx/美国_国债收益率_2年.xlsx
@@ -17162,8 +17162,48 @@
         <v>4.59</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B2136" s="2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
     <row r="2137">
-      <c r="A2137" s="3" t="inlineStr">
+      <c r="A2137" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B2137" s="2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B2138" s="2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B2139" s="2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B2140" s="2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
